--- a/data_year/zb/科技/限额以上研究与试验发展项目(课题)情况/限额以上研究与试验发展项目(课题)经费支出.xlsx
+++ b/data_year/zb/科技/限额以上研究与试验发展项目(课题)情况/限额以上研究与试验发展项目(课题)经费支出.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="B1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,88 +560,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>782341.04799468</v>
-      </c>
-      <c r="C2" t="n">
-        <v>621827.88</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29296912.5631271</v>
-      </c>
-      <c r="E2" t="n">
-        <v>96483.62</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2499033.0172668</v>
-      </c>
-      <c r="G2" t="n">
-        <v>247021.98</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1491620.56487045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>94328.23</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1179620.87770868</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2012462.99062059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>315846.59</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723774.5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>691603.48</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1732099.29078462</v>
-      </c>
-      <c r="P2" t="n">
-        <v>40631853.0537998</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4805014.24558575</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2687609.61331497</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1307482.65880074</v>
-      </c>
-      <c r="T2" t="n">
-        <v>8318775.05510459</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3499562.70780336</v>
-      </c>
-      <c r="V2" t="n">
-        <v>966766.16226516</v>
-      </c>
-      <c r="W2" t="n">
-        <v>27156779.396511</v>
-      </c>
-      <c r="X2" t="n">
-        <v>43936975.5937998</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1573897.97</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>37399862.0574294</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
